--- a/4_Data_Extraction/4_2_Open_Data/Paper_54/Clean_Data/CodeBook_P54_Exp3_Clean.xlsx
+++ b/4_Data_Extraction/4_2_Open_Data/Paper_54/Clean_Data/CodeBook_P54_Exp3_Clean.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Participant identifier</t>
   </si>
   <si>
-    <t>Numeric or alphanumeric</t>
+    <t>NA</t>
   </si>
   <si>
     <t>Categorical</t>
@@ -59,7 +59,7 @@
     <t>Indicates whether the combination was judged as matching or non-matching</t>
   </si>
   <si>
-    <t>Matching or non-matching</t>
+    <t>Matching;Nomatching</t>
   </si>
   <si>
     <t>Identity</t>
@@ -68,7 +68,7 @@
     <t>The combination of label and shape presented</t>
   </si>
   <si>
-    <t>Combination of labels and shapes</t>
+    <t>Acquaintance;Mother;Self</t>
   </si>
   <si>
     <t>RT_ms</t>
@@ -77,9 +77,6 @@
     <t>Response time in milliseconds</t>
   </si>
   <si>
-    <t>Time in milliseconds</t>
-  </si>
-  <si>
     <t>Numeric</t>
   </si>
   <si>
@@ -89,16 +86,13 @@
     <t>Response time in seconds</t>
   </si>
   <si>
-    <t>Time in seconds</t>
-  </si>
-  <si>
     <t>ACC</t>
   </si>
   <si>
     <t>Accuracy of the participant's response</t>
   </si>
   <si>
-    <t>Correct or incorrect</t>
+    <t>0;1</t>
   </si>
 </sst>
 </file>
@@ -1041,14 +1035,14 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="2" width="68.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="30.4166666666667" customWidth="1"/>
+    <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="61.5" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="4" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1116,35 +1110,35 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
